--- a/testData/opencartlogindata.xlsx
+++ b/testData/opencartlogindata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13313\Desktop\Testing Material\practiceProject\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13313\Desktop\Testing Material\OpenCart_Cucumber\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA8DC7D-97E9-40CE-A8BA-EC0EE4BE8067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF27B5D9-EACA-4EBF-8E2D-DEA33FC966A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="8475" windowWidth="20730" windowHeight="11835" xr2:uid="{514E52BB-73BB-481A-AA9B-8E5DB022917B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{514E52BB-73BB-481A-AA9B-8E5DB022917B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -42,10 +42,22 @@
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">admin123@gmail.com </t>
-  </si>
-  <si>
-    <t>admin@123</t>
+    <t xml:space="preserve">admin@123 </t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test123@gmail.com </t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -109,6 +121,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF5CB97-ECA4-4771-BCD5-372F6BED018E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,26 +436,45 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9606BF86-B06F-4399-91E4-5E6AC3EF24D1}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{2F69EACC-2E7B-48E3-BAA7-12D34E8E7F47}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{D4339E6B-EC35-4169-93FB-FBC1D2DB6B6C}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{0D608614-8331-407C-A683-D8895AC73375}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{413248C3-4A6F-4117-B99B-3150166A2361}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
